--- a/CONTACTS.xlsx
+++ b/CONTACTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kh\Desktop\دليل اتصال\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4D90E-58B7-47FC-8DD8-2F316D51C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47414BE7-482C-42B0-BA5D-9F7AD4FA8804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2610" windowWidth="24615" windowHeight="12990" xr2:uid="{DA1293B6-CA27-402C-A67D-06289D2BC9E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA1293B6-CA27-402C-A67D-06289D2BC9E1}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>الاسم</t>
   </si>
@@ -42,6 +42,9 @@
     <t> حساب التليجرام</t>
   </si>
   <si>
+    <t>العنوان</t>
+  </si>
+  <si>
     <t>عمار قصاب</t>
   </si>
   <si>
@@ -52,52 +55,13 @@
   </si>
   <si>
     <t>TF3RAAD</t>
-  </si>
-  <si>
-    <t>الرقم الذاتي</t>
-  </si>
-  <si>
-    <t>عنوان السكن</t>
-  </si>
-  <si>
-    <t>محمود محمد الصادق</t>
-  </si>
-  <si>
-    <t>ابوهمام باتبو</t>
-  </si>
-  <si>
-    <t>mg_5_11</t>
-  </si>
-  <si>
-    <t>باتبو</t>
-  </si>
-  <si>
-    <t>N222278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محمد احمد العبد الله </t>
-  </si>
-  <si>
-    <t>ابو حمزة بليون</t>
-  </si>
-  <si>
-    <t>963982508213+</t>
-  </si>
-  <si>
-    <t>Hamzah911</t>
-  </si>
-  <si>
-    <t>بليون</t>
-  </si>
-  <si>
-    <t>P162212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,15 +100,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="178"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,26 +138,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
@@ -281,16 +221,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C536E1F-6846-4236-AB5B-CF5722FEF3AB}" name="الجدول1" displayName="الجدول1" ref="A1:G5" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="A1:G5" xr:uid="{1C536E1F-6846-4236-AB5B-CF5722FEF3AB}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{08B2068C-D03D-4399-B523-D14C0A08383B}" name="الاسم" totalsRowFunction="count" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{E2DFE443-73B3-4AE2-9DE5-CE8F40D87CBE}" name="اللقب" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{F5E2022D-E45E-4A26-BFE6-C4789E6DB5B1}" name="رقم الهاتف" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4FFD086A-72F4-497A-ABD2-BD0E10F7F430}" name="رقم الواتساب" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{DC332CB2-21EE-4297-A95B-D96E3E4953D8}" name=" حساب التليجرام" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{EDD66300-70E2-45AD-968F-8D653D86BDAC}" name="عنوان السكن" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{B52E539B-7EC2-4082-9DF4-E8AFE5E51B31}" name="الرقم الذاتي" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C536E1F-6846-4236-AB5B-CF5722FEF3AB}" name="الجدول1" displayName="الجدول1" ref="A1:F5" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
+  <autoFilter ref="A1:F5" xr:uid="{1C536E1F-6846-4236-AB5B-CF5722FEF3AB}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{08B2068C-D03D-4399-B523-D14C0A08383B}" name="الاسم" totalsRowFunction="count" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E2DFE443-73B3-4AE2-9DE5-CE8F40D87CBE}" name="اللقب" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F5E2022D-E45E-4A26-BFE6-C4789E6DB5B1}" name="رقم الهاتف" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4FFD086A-72F4-497A-ABD2-BD0E10F7F430}" name="رقم الواتساب" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DC332CB2-21EE-4297-A95B-D96E3E4953D8}" name=" حساب التليجرام" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{EDD66300-70E2-45AD-968F-8D653D86BDAC}" name="العنوان" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -593,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D67EAAC-7049-4245-BE67-78EF574416D9}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,10 +546,9 @@
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,18 +565,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>934096914</v>
@@ -647,67 +582,35 @@
         <v>934096914</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>947206732</v>
-      </c>
-      <c r="D3" s="1">
-        <v>947206732</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
-      </c>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>982508213</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="5"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
